--- a/va_facility_data_2025-02-20/Devils Lake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Devils%20Lake%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Devils Lake VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Devils%20Lake%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R46fbed9385ef437382981531697c01ee"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R86830e7553fd4438ad5b155273ee6b39"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra11e5ad919cc48bc93128d89e5ceda72"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb05ce64c8fdb47f69db44001ba9cde20"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R952e26744f2c413d923171abcd9eebca"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra371817342124ac1994db10df0021a87"/>
   </x:sheets>
 </x:workbook>
 </file>
